--- a/InputData/indst/SYIEUEFbIPaF/Start Year Indst Eqpt Unit E Factor by Indst Proc and Fuel.xlsx
+++ b/InputData/indst/SYIEUEFbIPaF/Start Year Indst Eqpt Unit E Factor by Indst Proc and Fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\indst\SYIEUEFbIPaF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB759E-71B2-4878-8C72-14F3E59748C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BCA429-1125-4E8E-AD7E-F74FCA307623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58455" yWindow="2670" windowWidth="24180" windowHeight="11715" activeTab="2" xr2:uid="{910269CE-FD31-46D7-B2D8-8AF36ED85333}"/>
+    <workbookView xWindow="61260" yWindow="1725" windowWidth="24900" windowHeight="14490" activeTab="2" xr2:uid="{910269CE-FD31-46D7-B2D8-8AF36ED85333}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Source:</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Other process</t>
+  </si>
+  <si>
+    <t>green hydrogen if</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen if</t>
   </si>
 </sst>
 </file>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24580628-D512-4AA2-B8C0-728E31788019}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,7 +692,7 @@
         <v>0.76</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:I11" si="0">C$2*0.8</f>
+        <f t="shared" ref="C3:I13" si="0">C$2*0.8</f>
         <v>0.76</v>
       </c>
       <c r="D3" s="3">
@@ -719,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ref="B4:B11" si="1">B$2*0.8</f>
+        <f t="shared" ref="B4:B13" si="1">B$2*0.8</f>
         <v>0.76</v>
       </c>
       <c r="C4" s="3">
@@ -1003,6 +1009,80 @@
         <v>0.72000000000000008</v>
       </c>
       <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>0.64000000000000012</v>
       </c>
@@ -1017,10 +1097,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1428,6 +1508,90 @@
         <v>1.5624999999999998</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7">
+        <f>1/Calcs!B12</f>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="C12" s="7">
+        <f>1/Calcs!C12</f>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="D12" s="7">
+        <f>1/Calcs!D12</f>
+        <v>1.4705882352941175</v>
+      </c>
+      <c r="E12" s="7">
+        <f>1/Calcs!E12</f>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="F12" s="7">
+        <f>1/Calcs!F12</f>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="G12" s="7">
+        <f>1/Calcs!G12</f>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="H12" s="7">
+        <f>1/Calcs!H12</f>
+        <v>1.3888888888888886</v>
+      </c>
+      <c r="I12" s="7">
+        <f>1/Calcs!I12</f>
+        <v>1.5624999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7">
+        <f>1/Calcs!B13</f>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="C13" s="7">
+        <f>1/Calcs!C13</f>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="D13" s="7">
+        <f>1/Calcs!D13</f>
+        <v>1.4705882352941175</v>
+      </c>
+      <c r="E13" s="7">
+        <f>1/Calcs!E13</f>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="F13" s="7">
+        <f>1/Calcs!F13</f>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="G13" s="7">
+        <f>1/Calcs!G13</f>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="H13" s="7">
+        <f>1/Calcs!H13</f>
+        <v>1.3888888888888886</v>
+      </c>
+      <c r="I13" s="7">
+        <f>1/Calcs!I13</f>
+        <v>1.5624999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
